--- a/Z-F-Y-S/DATA/2021-02-04_best.xlsx
+++ b/Z-F-Y-S/DATA/2021-02-04_best.xlsx
@@ -835,22 +835,22 @@
         <v>44230</v>
       </c>
       <c r="B2" t="n">
-        <v>54.22999954223633</v>
+        <v>89.38999938964844</v>
       </c>
       <c r="C2" t="n">
-        <v>53.0099983215332</v>
+        <v>86.88999938964844</v>
       </c>
       <c r="D2" t="n">
-        <v>53.79000091552734</v>
+        <v>87.05000305175781</v>
       </c>
       <c r="E2" t="n">
-        <v>54.02999877929688</v>
+        <v>88.95999908447266</v>
       </c>
       <c r="F2" t="n">
-        <v>1459136</v>
+        <v>9094334</v>
       </c>
       <c r="G2" t="n">
-        <v>54.02999877929688</v>
+        <v>88.95999908447266</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>44230</v>
@@ -862,112 +862,112 @@
         <v>1612306800</v>
       </c>
       <c r="K2" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.45%</t>
+          <t>2.19%</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>54.9900016784668</v>
+        <v>88.01000213623047</v>
       </c>
       <c r="N2" t="n">
-        <v>53.7400016784668</v>
+        <v>87.05999755859375</v>
       </c>
       <c r="O2" t="n">
-        <v>53.79000091552734</v>
+        <v>85.98999786376953</v>
       </c>
       <c r="P2" t="n">
-        <v>54.86000061035156</v>
+        <v>86.41000366210938</v>
       </c>
       <c r="Q2" t="n">
-        <v>54.63999938964844</v>
+        <v>87.52999877929688</v>
       </c>
       <c r="R2" t="n">
-        <v>56.5099983215332</v>
+        <v>88.19999694824219</v>
       </c>
       <c r="S2" t="n">
-        <v>53.02999877929688</v>
+        <v>95</v>
       </c>
       <c r="T2" t="n">
-        <v>52.84000015258789</v>
+        <v>95.37999725341797</v>
       </c>
       <c r="U2" t="n">
-        <v>2331700</v>
+        <v>9233100</v>
       </c>
       <c r="V2" t="n">
-        <v>54.31749947865804</v>
+        <v>89.89499982198079</v>
       </c>
       <c r="W2" t="n">
-        <v>53.46346150911771</v>
+        <v>89.4849997300368</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8540379695403288</v>
+        <v>0.410000091943985</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.9636963330782393</v>
+        <v>2.365875619089501</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.1096583635379105</v>
+        <v>-1.955875527145516</v>
       </c>
       <c r="AA2" t="n">
-        <v>-37.42179525667967</v>
+        <v>-1.502918846324636</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.09361686831598004</v>
+        <v>0.03107636225882361</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1087249336413436</v>
+        <v>0.08960229851405604</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.0151080653253636</v>
+        <v>-0.05852593625523243</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.02647974546132035</v>
+        <v>-0.05014274159855877</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.01137168013595675</v>
+        <v>-0.008383194656673663</v>
       </c>
       <c r="AG2" t="n">
-        <v>100.09</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK2" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AL2" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AM2" t="n">
         <v>100</v>
       </c>
       <c r="AN2" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AO2" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AP2" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AQ2" t="n">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.1521155093809831</v>
+        <v>-1.858140728072894</v>
       </c>
       <c r="AS2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
         <v>4</v>
@@ -976,32 +976,32 @@
         <v>0</v>
       </c>
       <c r="AW2" s="3" t="n">
-        <v>44202</v>
+        <v>44225</v>
       </c>
       <c r="AX2" t="n">
         <v>-1</v>
       </c>
       <c r="AY2" t="n">
-        <v>-29</v>
+        <v>-6</v>
       </c>
       <c r="AZ2" t="n">
-        <v>7.853189959532441</v>
+        <v>-50.57</v>
       </c>
       <c r="BA2" t="n">
-        <v>21.46318682998416</v>
+        <v>-30.88912919530091</v>
       </c>
       <c r="BB2" t="n">
-        <v>12.4311313895069</v>
+        <v>93.71815788760597</v>
       </c>
       <c r="BC2" t="n">
-        <v>21.92180051900327</v>
+        <v>-30.45844697230459</v>
       </c>
       <c r="BD2" t="n">
-        <v>51.79558357524719</v>
+        <v>143.4506330838733</v>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
@@ -1010,23 +1010,23 @@
         </is>
       </c>
       <c r="BG2" t="n">
-        <v>4.35</v>
+        <v>0.95</v>
       </c>
       <c r="BH2" t="n">
-        <v>-41</v>
+        <v>612</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.2</v>
+        <v>4.41</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.09</v>
+        <v>-0.01</v>
       </c>
       <c r="BK2" t="n">
-        <v>-408</v>
+        <v>335</v>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>CIEN</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="BN2" t="n">
-        <v>3e-05</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="BO2" s="3" t="n">
         <v>38720</v>
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="BR2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS2" t="n">
         <v>1</v>
@@ -1059,20 +1059,20 @@
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>TelecommunicationsEquipment</t>
+          <t>IntegratedOil</t>
         </is>
       </c>
       <c r="BV2" t="n">
-        <v>-18.75</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="BW2" t="n">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="BX2" t="n">
-        <v>61.52</v>
+        <v>112.6</v>
       </c>
       <c r="BY2" t="n">
-        <v>8.35</v>
+        <v>171.25</v>
       </c>
     </row>
     <row r="3">
@@ -1230,7 +1230,7 @@
         <v>6</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-2.753503707821233</v>
+        <v>-26.97</v>
       </c>
       <c r="BA3" t="n">
         <v>-4.461429196155564</v>
@@ -1308,10 +1308,10 @@
         </is>
       </c>
       <c r="BV3" t="n">
-        <v>-10.56</v>
+        <v>-9.779999999999999</v>
       </c>
       <c r="BW3" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="BX3" t="n">
         <v>181.83</v>
@@ -1331,7 +1331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BY1"/>
+  <dimension ref="A1:BY2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1724,6 +1724,251 @@
         <is>
           <t>mkt_Cap_bill</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44230</v>
+      </c>
+      <c r="B2" t="n">
+        <v>89.38999938964844</v>
+      </c>
+      <c r="C2" t="n">
+        <v>86.88999938964844</v>
+      </c>
+      <c r="D2" t="n">
+        <v>87.05000305175781</v>
+      </c>
+      <c r="E2" t="n">
+        <v>88.95999908447266</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9094334</v>
+      </c>
+      <c r="G2" t="n">
+        <v>88.95999908447266</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>44230</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>44230</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1612306800</v>
+      </c>
+      <c r="K2" t="n">
+        <v>102</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2.19%</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>88.01000213623047</v>
+      </c>
+      <c r="N2" t="n">
+        <v>87.05999755859375</v>
+      </c>
+      <c r="O2" t="n">
+        <v>85.98999786376953</v>
+      </c>
+      <c r="P2" t="n">
+        <v>86.41000366210938</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>87.52999877929688</v>
+      </c>
+      <c r="R2" t="n">
+        <v>88.19999694824219</v>
+      </c>
+      <c r="S2" t="n">
+        <v>95</v>
+      </c>
+      <c r="T2" t="n">
+        <v>95.37999725341797</v>
+      </c>
+      <c r="U2" t="n">
+        <v>9233100</v>
+      </c>
+      <c r="V2" t="n">
+        <v>89.89499982198079</v>
+      </c>
+      <c r="W2" t="n">
+        <v>89.4849997300368</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.410000091943985</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2.365875619089501</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-1.955875527145516</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-1.502918846324636</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.03107636225882361</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.08960229851405604</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.05852593625523243</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.05014274159855877</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.008383194656673663</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>102</v>
+      </c>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="n">
+        <v>99</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>103</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>102</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>94</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1.858140728072894</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="3" t="n">
+        <v>44225</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-50.57</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-30.88912919530091</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>93.71815788760597</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-30.45844697230459</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>143.4506330838733</v>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>612</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>335</v>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>RAISING</t>
+        </is>
+      </c>
+      <c r="BN2" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="BO2" s="3" t="n">
+        <v>38720</v>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>ist2</t>
+        </is>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>IntegratedOil</t>
+        </is>
+      </c>
+      <c r="BV2" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>171.25</v>
       </c>
     </row>
   </sheetData>
